--- a/emhmm-toolbox/demo_cocluster/test-data/test-info.xlsx
+++ b/emhmm-toolbox/demo_cocluster/test-data/test-info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abc/Documents/Work/repo/src-fixations/imports-for-merging/co-clustering/newcode/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaderein/Work/XAI/emhmm-toolbox/demo_cocluster/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48DB48D-4EB1-564E-B96C-C5227D682F67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3975F44-90D3-DA42-9AB2-ADC2021722A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1000" windowWidth="24900" windowHeight="15000" xr2:uid="{22D65D01-6752-3047-A6D9-25DB83B6A844}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -409,12 +409,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -442,13 +442,13 @@
         <v>1280</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>768</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -459,13 +459,13 @@
         <v>1280</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -476,13 +476,13 @@
         <v>1280</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>768</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -493,13 +493,13 @@
         <v>1280</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>768</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -510,7 +510,7 @@
         <v>1280</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>768</v>
@@ -518,5 +518,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>